--- a/biology/Médecine/Stéatorrhée/Stéatorrhée.xlsx
+++ b/biology/Médecine/Stéatorrhée/Stéatorrhée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>St%C3%A9atorrh%C3%A9e</t>
+          <t>Stéatorrhée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La stéatorrhée se définit par la quantité anormalement élevée des graisses (lipides) dans les selles.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>St%C3%A9atorrh%C3%A9e</t>
+          <t>Stéatorrhée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,48 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La stéatorrhée se manifeste généralement par une diarrhée graisseuse faite de selles pâteuses, décolorées, malodorantes et adhérentes.
-Autres symptômes
-Syndrome de malabsorption dont les lipides
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La stéatorrhée se manifeste généralement par une diarrhée graisseuse faite de selles pâteuses, décolorées, malodorantes et adhérentes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Stéatorrhée</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/St%C3%A9atorrh%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Clinique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Autres symptômes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Syndrome de malabsorption dont les lipides
 Carences en vitamines liposolubles A, D, E, et K ;
 Amaigrissement ;
 Lithiases cholestéroliformes ;
@@ -526,31 +575,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>St%C3%A9atorrh%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Stéatorrhée</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/St%C3%A9atorrh%C3%A9e</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est le dosage des graisses fécales qui permet de définir la stéatorrhée. Après une charge orale en graisse de 100 grammes par jour pendant trois jours, on recueille des selles contenant plus de six pour cent de graisse soit plus de 6 grammes de lipides trouvés dans les selles par 24 heures.
 Un dosage de la stéatocrite acide peut également se faire, lorsqu’il est supérieur à 10%, il reflète une malabsorption des graisses.
@@ -558,31 +609,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>St%C3%A9atorrh%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Stéatorrhée</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/St%C3%A9atorrh%C3%A9e</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La stéatorrhée est observée lorsque l'absorption intestinale des lipides est impossible c'est-à-dire dans deux grands mécanismes typiques :
 les atrophies de la muqueuse intestinale, limitant le passage transpariétal des acides gras.
@@ -594,31 +647,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>St%C3%A9atorrh%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Stéatorrhée</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/St%C3%A9atorrh%C3%A9e</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Étiologie des stéatorrhées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>malabsorption, par exemple en cas de :
 maladie inflammatoire intestinale,
@@ -634,7 +689,7 @@
 cholédocholithiase (obstruction du conduit biliaire par un calcul biliaire),
 cancer du pancréas (s'il obstrue l'évacuation biliaire),
 cholangite sclérosante primitive,
-acidification du chyme (Syndrome de Zollinger-Ellison[1]),</t>
+acidification du chyme (Syndrome de Zollinger-Ellison),</t>
         </is>
       </c>
     </row>
